--- a/BOM_LTC3556_v1.2a_ (1).xlsx
+++ b/BOM_LTC3556_v1.2a_ (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirky\OneDrive\Desktop\Senior Design\LTC3556\LTC3556 v1.2a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirky\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63452BE5-86D5-4D8F-B1C2-B61F127B8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77693AC6-B26E-4B75-9963-CF9EE8E91BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{EC56C50D-E45E-406B-B017-B7E12E9D3512}"/>
+    <workbookView xWindow="43080" yWindow="12420" windowWidth="29040" windowHeight="15720" xr2:uid="{EC56C50D-E45E-406B-B017-B7E12E9D3512}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC3556_v1.2a_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Footprint</t>
   </si>
@@ -203,6 +203,45 @@
   </si>
   <si>
     <t>DC_ DC Invertor/ Charge Pump</t>
+  </si>
+  <si>
+    <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>TC7660EOA</t>
+  </si>
+  <si>
+    <t>C0402C105M9PACTU</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 6.3V X5R 0402</t>
+  </si>
+  <si>
+    <t>399-C0402C105M9PACTUTR-ND</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL05A106MQ5NRNC?qs=xZ%2FP%252Ba9zWqYQV6QCAIWS6w%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 130 pF 50 VDC 2% 0402 X8G AEC-Q200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murata Electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCG1555G1H131GA01D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GCG1555G1H131GA1D </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GCG1555G1H131GA01D?qs=QzBtWTOodeUu5id1a%2FuWbQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -747,7 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,6 +805,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,28 +1194,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC26F43-FE3A-4EFF-BE74-A59F87D0E43E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="63.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="79.7109375" customWidth="1"/>
-    <col min="11" max="11" width="111.7109375" customWidth="1"/>
-    <col min="12" max="12" width="71.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="63.265625" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="30.73046875" customWidth="1"/>
+    <col min="10" max="10" width="79.73046875" customWidth="1"/>
+    <col min="11" max="11" width="111.73046875" customWidth="1"/>
+    <col min="12" max="12" width="71.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -1211,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -1243,13 +1289,13 @@
         <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -1287,9 +1333,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.8</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1297,6 +1349,21 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
       <c r="K4" t="s">
         <v>3</v>
       </c>
@@ -1304,24 +1371,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="B5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.5</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
       </c>
+      <c r="F5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1338,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1358,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1375,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1392,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1409,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1426,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1443,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1460,7 +1548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1477,7 +1565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1494,7 +1582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1511,7 +1599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1528,7 +1616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1545,7 +1633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1562,7 +1650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1579,7 +1667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +1690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1616,17 +1704,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" t="s">
         <v>52</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL05A106MQ5NRNC?qs=xZ%2FP%252Ba9zWqYQV6QCAIWS6w%3D%3D" xr:uid="{B4593446-D7D4-47B8-894E-4DA41453BF6A}"/>
+    <hyperlink ref="K24" r:id="rId1" display="https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL05A106MQ5NRNC?qs=xZ%2FP%252Ba9zWqYQV6QCAIWS6w%3D%3D" xr:uid="{0A42F904-B76D-4FE9-BE68-F839E5A30524}"/>
+    <hyperlink ref="F5" r:id="rId2" display="https://www.mouser.com/manufacturer/murataelectronics/" xr:uid="{62FB19FC-76B9-411C-BB79-48F602FD7B67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_LTC3556_v1.2a_ (1).xlsx
+++ b/BOM_LTC3556_v1.2a_ (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirky\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77693AC6-B26E-4B75-9963-CF9EE8E91BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90629E33-D2F1-481B-AFD3-448483847D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="12420" windowWidth="29040" windowHeight="15720" xr2:uid="{EC56C50D-E45E-406B-B017-B7E12E9D3512}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t>Footprint</t>
   </si>
@@ -82,9 +82,6 @@
     <t>SI2333DS-T1-E3</t>
   </si>
   <si>
-    <t>https://ngspice.sourceforge.io/docs/ngspice-html-manual/manual.xhtml#cha_MOSFETs</t>
-  </si>
-  <si>
     <t>Package_TO_SOT_SMD:SOT-23-3</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM155R60J104MA01D?qs=IPQhFcwEUOgnRc6bL2wHAQ%3D%3D</t>
   </si>
   <si>
-    <t>DC_ DC Invertor/ Charge Pump</t>
-  </si>
-  <si>
     <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
@@ -242,6 +236,179 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GCG1555G1H131GA01D?qs=QzBtWTOodeUu5id1a%2FuWbQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB2.0 MICRO B SMD R/A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/amphenol-cs-fci/10118194-0001LF/2785389</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc.</t>
+  </si>
+  <si>
+    <t>LTC3556EUFD#PBF</t>
+  </si>
+  <si>
+    <t>505-LTC3556EUFD#PBF-ND</t>
+  </si>
+  <si>
+    <t>IC USB POWER MANAGE 28QFN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/ltc3556eufd-pbf/1840049</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>TC7660EOA-ND</t>
+  </si>
+  <si>
+    <t>Charge Pump Switching Regulator IC Positive or Negative Fixed -Vin, 2Vin 1 Output 20mA 8-SOIC (0.154", 3.90mm Width)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/tc7660eoa/418700</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>OS102011MS2QS1C</t>
+  </si>
+  <si>
+    <t>611-OS102011MS2QS1</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE SPDT 0.1A 12V/ On-On</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CK/OS102011MS2QS1?qs=WtljUlYws5TrGs9OfHrZYw%3D%3D&amp;srsltid=AfmBOorg7BZWjx11b4Vn7fZxW1Kl6Sbh8HxBj0rMyG_NAMbOMVGbi6AA</t>
+  </si>
+  <si>
+    <t>Vishay Siliconix</t>
+  </si>
+  <si>
+    <t>SI2333DS-T1-E3CT-ND</t>
+  </si>
+  <si>
+    <t>P-Channel 12 V 4.1A (Ta) 750mW (Ta) Surface Mount SOT-23-3 (TO-236)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-siliconix/si2333ds-t1-e3/1656354</t>
+  </si>
+  <si>
+    <t>Coilcraft</t>
+  </si>
+  <si>
+    <t>LPS4018-332MRC</t>
+  </si>
+  <si>
+    <t>994-LPS4018-332MRC</t>
+  </si>
+  <si>
+    <t>LPS4018-332MRC Coilcraft | Mouser</t>
+  </si>
+  <si>
+    <t>LPS4018-222MRC</t>
+  </si>
+  <si>
+    <t>994-LPS4018-222MRC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Power Inductors - SMD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2uH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Shld 20% 1.5A 70 mOhms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Power Inductors - SMD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.3uH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shld 20% 2A 80 mOhms</t>
+    </r>
+  </si>
+  <si>
+    <t>LPS4018-222MRC Coilcraft | Mouser</t>
+  </si>
+  <si>
+    <t>LPS3015-472MRC</t>
+  </si>
+  <si>
+    <t>994-LPS3015-472MRC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Power Inductors - SMD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4.7uH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shld 20% 200mOhms AECQ2</t>
+    </r>
+  </si>
+  <si>
+    <t>LPS3015-472MRC Coilcraft | Mouser</t>
   </si>
 </sst>
 </file>
@@ -251,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +573,26 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="39">
@@ -786,7 +973,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,12 +994,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1196,59 +1385,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC26F43-FE3A-4EFF-BE74-A59F87D0E43E}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="63.265625" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="30.73046875" customWidth="1"/>
-    <col min="10" max="10" width="79.73046875" customWidth="1"/>
-    <col min="11" max="11" width="111.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.86328125" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" customWidth="1"/>
+    <col min="9" max="9" width="24.86328125" customWidth="1"/>
+    <col min="10" max="10" width="99.19921875" customWidth="1"/>
+    <col min="11" max="11" width="122.3984375" customWidth="1"/>
     <col min="12" max="12" width="71.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>0</v>
@@ -1271,25 +1460,25 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1309,25 +1498,25 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>4</v>
@@ -1347,22 +1536,22 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -1385,25 +1574,25 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -1417,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -1428,19 +1617,37 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.0499999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -1454,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
         <v>3</v>
@@ -1465,16 +1672,37 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6.1</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -1482,16 +1710,37 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>12.2</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1499,16 +1748,37 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6.1</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
@@ -1516,19 +1786,40 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5.45</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
         <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -1536,16 +1827,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -1553,16 +1844,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -1570,16 +1861,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -1587,33 +1878,36 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -1621,16 +1915,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -1638,16 +1932,16 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -1655,70 +1949,130 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2.4</v>
       </c>
       <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
         <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5.3</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -1735,25 +2089,25 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
@@ -1763,6 +2117,11 @@
   <hyperlinks>
     <hyperlink ref="K24" r:id="rId1" display="https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL05A106MQ5NRNC?qs=xZ%2FP%252Ba9zWqYQV6QCAIWS6w%3D%3D" xr:uid="{0A42F904-B76D-4FE9-BE68-F839E5A30524}"/>
     <hyperlink ref="F5" r:id="rId2" display="https://www.mouser.com/manufacturer/murataelectronics/" xr:uid="{62FB19FC-76B9-411C-BB79-48F602FD7B67}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{B31E1F62-E49B-4869-8841-69C5289857E3}"/>
+    <hyperlink ref="K11" r:id="rId4" display="https://www.mouser.com/ProductDetail/Coilcraft/LPS4018-332MRC?qs=QQJxVsr8EGapQGERfchnNw%3D%3D" xr:uid="{B536C6E8-9C52-4190-BCC7-6E80BEDD4280}"/>
+    <hyperlink ref="C17" r:id="rId5" display="https://www.mouser.com/ProductDetail/Coilcraft/LPS4018-332MRC?qs=QQJxVsr8EGapQGERfchnNw%3D%3D" xr:uid="{7B1306B6-21BB-454A-8E67-5EE91796E709}"/>
+    <hyperlink ref="K9" r:id="rId6" display="https://www.mouser.com/ProductDetail/Coilcraft/LPS4018-222MRC?qs=MW2gS7wPCVyKR5mBRcErLw%3D%3D" xr:uid="{5DEF29D1-FB00-438E-B9B7-71869CC0E44E}"/>
+    <hyperlink ref="K10" r:id="rId7" display="https://www.mouser.com/ProductDetail/Coilcraft/LPS3015-472MRC?qs=QQJxVsr8EGaLi%252BiqAu49Ng%3D%3D" xr:uid="{AA311184-1CF0-43EB-BF86-CA36256C70B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
